--- a/params_OroLoma_CellF.xlsx
+++ b/params_OroLoma_CellF.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F92650B-8903-4F90-8993-F56C856721AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755BDB5-2C2E-47E9-BF7D-C69503614B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11325" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>val</t>
   </si>
@@ -340,9 +339,6 @@
     <t>Carman (1938), range of 150 - 220 for sand</t>
   </si>
   <si>
-    <t>Calibrated 55.0416069</t>
-  </si>
-  <si>
     <t>sys_x</t>
   </si>
   <si>
@@ -361,9 +357,6 @@
     <t>x coordinates of system for system geometry</t>
   </si>
   <si>
-    <t>Calibrated to velocity in tracer test 0.560255289369162</t>
-  </si>
-  <si>
     <t>mobile/immobile mixing rate (/hr)</t>
   </si>
   <si>
@@ -391,12 +384,6 @@
     <t>Calibrated 1.98694581e-02</t>
   </si>
   <si>
-    <t>Calibrated 3.36905091e+01</t>
-  </si>
-  <si>
-    <t>Calibrated 9.29911253e-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">/h 1st order root growth rate constant </t>
   </si>
   <si>
@@ -416,6 +403,9 @@
   </si>
   <si>
     <t>Half of the reporting limit from the logger (0.75 is lowest reported value)</t>
+  </si>
+  <si>
+    <t>Calculated from velocity in tracer test 0.560255289369162</t>
   </si>
 </sst>
 </file>
@@ -781,10 +771,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -794,7 +784,7 @@
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -808,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -819,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -830,7 +820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -841,7 +831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -852,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -863,39 +853,40 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>6873.55267</v>
+        <v>35.281998600000001</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="1"/>
+      <c r="J7" s="1">
+        <v>2.9399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4">
-        <v>9.0636961800000009</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
+        <v>8.8971972400000006</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -906,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -917,7 +908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -926,13 +917,13 @@
         <v>6.8493150684931502E-5</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -946,7 +937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -960,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -975,7 +966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -989,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1224,10 +1215,10 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1239,10 +1230,10 @@
         <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1254,10 +1245,10 @@
         <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1271,7 +1262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -1285,7 +1276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1299,7 +1290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1313,7 +1304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -1324,21 +1315,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="4">
-        <v>7.3597751200000006E-2</v>
+        <v>8.0186249500000008E-3</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1360,10 +1351,10 @@
         <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1377,7 +1368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1388,7 +1379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -1399,12 +1390,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>98</v>
       </c>
       <c r="B47" s="2">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>99</v>
@@ -1412,63 +1403,60 @@
       <c r="D47" t="s">
         <v>100</v>
       </c>
-      <c r="E47" t="s">
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
         <v>103</v>
-      </c>
-      <c r="B49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
         <v>105</v>
-      </c>
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
         <v>111</v>
-      </c>
-      <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
